--- a/user-data/education-pc-transferred-oda/education-pc-transferred-oda.xlsx
+++ b/user-data/education-pc-transferred-oda/education-pc-transferred-oda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="367">
   <si>
     <t>id</t>
   </si>
@@ -1094,9 +1094,6 @@
   </si>
   <si>
     <t>Source: Development Initiatives based on OECD-DAC data</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1481,32 +1478,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13">
@@ -1522,11 +1519,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>366</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/education-pc-transferred-oda/education-pc-transferred-oda.xlsx
+++ b/user-data/education-pc-transferred-oda/education-pc-transferred-oda.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1102,7 +1102,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/education-pc-transferred-oda/education-pc-transferred-oda.xlsx
+++ b/user-data/education-pc-transferred-oda/education-pc-transferred-oda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
   <si>
     <t>id</t>
   </si>
@@ -1108,7 +1108,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1521,6 +1524,11 @@
         <v>366</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>367</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/education-pc-transferred-oda/education-pc-transferred-oda.xlsx
+++ b/user-data/education-pc-transferred-oda/education-pc-transferred-oda.xlsx
@@ -73,7 +73,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -151,7 +151,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -178,88 +178,88 @@
     <t>Burundi</t>
   </si>
   <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>central-asia</t>
+  </si>
+  <si>
+    <t>Central Asia, regional</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t>KH</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>central-asia</t>
-  </si>
-  <si>
-    <t>Central Asia, regional</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>CK</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -763,7 +763,7 @@
     <t>SH</t>
   </si>
   <si>
-    <t>Saint Helena, Ascension and Tristan da Cunha</t>
+    <t>Saint Helena, Ascension &amp; Tristan da Cunha</t>
   </si>
   <si>
     <t>KN</t>
@@ -781,7 +781,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -793,7 +793,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -955,7 +955,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -979,7 +979,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1033,7 +1033,7 @@
     <t>WF</t>
   </si>
   <si>
-    <t>Wallis and Futuna</t>
+    <t>Wallis &amp; Futuna</t>
   </si>
   <si>
     <t>west-indies</t>
@@ -1117,7 +1117,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -4326,7 +4326,7 @@
         <v>2006</v>
       </c>
       <c r="D199" t="n">
-        <v>3.051572535</v>
+        <v>9.639792179</v>
       </c>
     </row>
     <row r="200">
@@ -4340,7 +4340,7 @@
         <v>2007</v>
       </c>
       <c r="D200" t="n">
-        <v>5.623516267</v>
+        <v>6.547969031</v>
       </c>
     </row>
     <row r="201">
@@ -4354,7 +4354,7 @@
         <v>2008</v>
       </c>
       <c r="D201" t="n">
-        <v>2.515114289</v>
+        <v>6.124350991</v>
       </c>
     </row>
     <row r="202">
@@ -4368,7 +4368,7 @@
         <v>2009</v>
       </c>
       <c r="D202" t="n">
-        <v>2.338755659</v>
+        <v>6.295014863</v>
       </c>
     </row>
     <row r="203">
@@ -4382,7 +4382,7 @@
         <v>2010</v>
       </c>
       <c r="D203" t="n">
-        <v>6.436191519</v>
+        <v>5.348434187</v>
       </c>
     </row>
     <row r="204">
@@ -4396,7 +4396,7 @@
         <v>2011</v>
       </c>
       <c r="D204" t="n">
-        <v>1.091580348</v>
+        <v>7.908647437</v>
       </c>
     </row>
     <row r="205">
@@ -4410,7 +4410,7 @@
         <v>2012</v>
       </c>
       <c r="D205" t="n">
-        <v>2.805053563</v>
+        <v>6.697297905</v>
       </c>
     </row>
     <row r="206">
@@ -4424,7 +4424,7 @@
         <v>2013</v>
       </c>
       <c r="D206" t="n">
-        <v>2.832418827</v>
+        <v>8.510467918</v>
       </c>
     </row>
     <row r="207">
@@ -4438,7 +4438,7 @@
         <v>2006</v>
       </c>
       <c r="D207" t="n">
-        <v>9.639792179</v>
+        <v>6.661575083</v>
       </c>
     </row>
     <row r="208">
@@ -4452,7 +4452,7 @@
         <v>2007</v>
       </c>
       <c r="D208" t="n">
-        <v>6.547969031</v>
+        <v>9.798449891</v>
       </c>
     </row>
     <row r="209">
@@ -4466,7 +4466,7 @@
         <v>2008</v>
       </c>
       <c r="D209" t="n">
-        <v>6.124350991</v>
+        <v>4.773075558</v>
       </c>
     </row>
     <row r="210">
@@ -4480,7 +4480,7 @@
         <v>2009</v>
       </c>
       <c r="D210" t="n">
-        <v>6.295014863</v>
+        <v>3.689236208</v>
       </c>
     </row>
     <row r="211">
@@ -4494,7 +4494,7 @@
         <v>2010</v>
       </c>
       <c r="D211" t="n">
-        <v>5.348434187</v>
+        <v>4.333753269</v>
       </c>
     </row>
     <row r="212">
@@ -4508,7 +4508,7 @@
         <v>2011</v>
       </c>
       <c r="D212" t="n">
-        <v>7.908647437</v>
+        <v>5.492220809</v>
       </c>
     </row>
     <row r="213">
@@ -4522,7 +4522,7 @@
         <v>2012</v>
       </c>
       <c r="D213" t="n">
-        <v>6.697297905</v>
+        <v>4.95117967</v>
       </c>
     </row>
     <row r="214">
@@ -4536,7 +4536,7 @@
         <v>2013</v>
       </c>
       <c r="D214" t="n">
-        <v>8.510467918</v>
+        <v>2.654849465</v>
       </c>
     </row>
     <row r="215">
@@ -4550,7 +4550,7 @@
         <v>2006</v>
       </c>
       <c r="D215" t="n">
-        <v>6.661575083</v>
+        <v>7.355121802</v>
       </c>
     </row>
     <row r="216">
@@ -4564,7 +4564,7 @@
         <v>2007</v>
       </c>
       <c r="D216" t="n">
-        <v>9.798449891</v>
+        <v>8.235148709</v>
       </c>
     </row>
     <row r="217">
@@ -4578,7 +4578,7 @@
         <v>2008</v>
       </c>
       <c r="D217" t="n">
-        <v>4.773075558</v>
+        <v>4.670184579</v>
       </c>
     </row>
     <row r="218">
@@ -4592,7 +4592,7 @@
         <v>2009</v>
       </c>
       <c r="D218" t="n">
-        <v>3.689236208</v>
+        <v>8.085320085</v>
       </c>
     </row>
     <row r="219">
@@ -4606,7 +4606,7 @@
         <v>2010</v>
       </c>
       <c r="D219" t="n">
-        <v>4.333753269</v>
+        <v>4.577338703</v>
       </c>
     </row>
     <row r="220">
@@ -4620,7 +4620,7 @@
         <v>2011</v>
       </c>
       <c r="D220" t="n">
-        <v>5.492220809</v>
+        <v>2.165824885</v>
       </c>
     </row>
     <row r="221">
@@ -4634,7 +4634,7 @@
         <v>2012</v>
       </c>
       <c r="D221" t="n">
-        <v>4.95117967</v>
+        <v>2.310844397</v>
       </c>
     </row>
     <row r="222">
@@ -4648,7 +4648,7 @@
         <v>2013</v>
       </c>
       <c r="D222" t="n">
-        <v>2.654849465</v>
+        <v>5.065161415</v>
       </c>
     </row>
     <row r="223">
@@ -4662,7 +4662,7 @@
         <v>2006</v>
       </c>
       <c r="D223" t="n">
-        <v>7.355121802</v>
+        <v>1.337240001</v>
       </c>
     </row>
     <row r="224">
@@ -4676,7 +4676,7 @@
         <v>2007</v>
       </c>
       <c r="D224" t="n">
-        <v>8.235148709</v>
+        <v>1.403100071</v>
       </c>
     </row>
     <row r="225">
@@ -4690,7 +4690,7 @@
         <v>2008</v>
       </c>
       <c r="D225" t="n">
-        <v>4.670184579</v>
+        <v>1.321151272</v>
       </c>
     </row>
     <row r="226">
@@ -4704,7 +4704,7 @@
         <v>2009</v>
       </c>
       <c r="D226" t="n">
-        <v>8.085320085</v>
+        <v>1.917380781</v>
       </c>
     </row>
     <row r="227">
@@ -4718,7 +4718,7 @@
         <v>2010</v>
       </c>
       <c r="D227" t="n">
-        <v>4.577338703</v>
+        <v>2.860486351</v>
       </c>
     </row>
     <row r="228">
@@ -4732,7 +4732,7 @@
         <v>2011</v>
       </c>
       <c r="D228" t="n">
-        <v>2.165824885</v>
+        <v>6.354708828</v>
       </c>
     </row>
     <row r="229">
@@ -4746,7 +4746,7 @@
         <v>2012</v>
       </c>
       <c r="D229" t="n">
-        <v>2.310844397</v>
+        <v>2.300601005</v>
       </c>
     </row>
     <row r="230">
@@ -4760,7 +4760,7 @@
         <v>2013</v>
       </c>
       <c r="D230" t="n">
-        <v>5.065161415</v>
+        <v>1.502163458</v>
       </c>
     </row>
     <row r="231">
@@ -4774,7 +4774,7 @@
         <v>2006</v>
       </c>
       <c r="D231" t="n">
-        <v>1.337240001</v>
+        <v>0.628640541</v>
       </c>
     </row>
     <row r="232">
@@ -4788,7 +4788,7 @@
         <v>2007</v>
       </c>
       <c r="D232" t="n">
-        <v>1.403100071</v>
+        <v>2.114128812</v>
       </c>
     </row>
     <row r="233">
@@ -4802,7 +4802,7 @@
         <v>2008</v>
       </c>
       <c r="D233" t="n">
-        <v>1.321151272</v>
+        <v>3.073804514</v>
       </c>
     </row>
     <row r="234">
@@ -4816,7 +4816,7 @@
         <v>2009</v>
       </c>
       <c r="D234" t="n">
-        <v>1.917380781</v>
+        <v>4.906083014</v>
       </c>
     </row>
     <row r="235">
@@ -4830,7 +4830,7 @@
         <v>2010</v>
       </c>
       <c r="D235" t="n">
-        <v>2.860486351</v>
+        <v>9.212636616</v>
       </c>
     </row>
     <row r="236">
@@ -4844,7 +4844,7 @@
         <v>2011</v>
       </c>
       <c r="D236" t="n">
-        <v>6.354708828</v>
+        <v>10.74440751</v>
       </c>
     </row>
     <row r="237">
@@ -4858,7 +4858,7 @@
         <v>2012</v>
       </c>
       <c r="D237" t="n">
-        <v>2.300601005</v>
+        <v>6.8254307</v>
       </c>
     </row>
     <row r="238">
@@ -4872,7 +4872,7 @@
         <v>2013</v>
       </c>
       <c r="D238" t="n">
-        <v>1.502163458</v>
+        <v>4.087689912</v>
       </c>
     </row>
     <row r="239">
@@ -4886,7 +4886,7 @@
         <v>2006</v>
       </c>
       <c r="D239" t="n">
-        <v>0.628640541</v>
+        <v>5.019423926</v>
       </c>
     </row>
     <row r="240">
@@ -4900,7 +4900,7 @@
         <v>2007</v>
       </c>
       <c r="D240" t="n">
-        <v>2.114128812</v>
+        <v>4.690517547</v>
       </c>
     </row>
     <row r="241">
@@ -4914,7 +4914,7 @@
         <v>2008</v>
       </c>
       <c r="D241" t="n">
-        <v>3.073804514</v>
+        <v>3.046790239</v>
       </c>
     </row>
     <row r="242">
@@ -4928,7 +4928,7 @@
         <v>2009</v>
       </c>
       <c r="D242" t="n">
-        <v>4.906083014</v>
+        <v>3.088868996</v>
       </c>
     </row>
     <row r="243">
@@ -4942,7 +4942,7 @@
         <v>2010</v>
       </c>
       <c r="D243" t="n">
-        <v>9.212636616</v>
+        <v>2.03390054</v>
       </c>
     </row>
     <row r="244">
@@ -4956,7 +4956,7 @@
         <v>2011</v>
       </c>
       <c r="D244" t="n">
-        <v>10.74440751</v>
+        <v>2.525371008</v>
       </c>
     </row>
     <row r="245">
@@ -4970,7 +4970,7 @@
         <v>2012</v>
       </c>
       <c r="D245" t="n">
-        <v>6.8254307</v>
+        <v>2.781397753</v>
       </c>
     </row>
     <row r="246">
@@ -4984,7 +4984,7 @@
         <v>2013</v>
       </c>
       <c r="D246" t="n">
-        <v>4.087689912</v>
+        <v>2.132613684</v>
       </c>
     </row>
     <row r="247">
@@ -4998,7 +4998,7 @@
         <v>2006</v>
       </c>
       <c r="D247" t="n">
-        <v>5.019423926</v>
+        <v>9.77993346</v>
       </c>
     </row>
     <row r="248">
@@ -5012,7 +5012,7 @@
         <v>2007</v>
       </c>
       <c r="D248" t="n">
-        <v>4.690517547</v>
+        <v>10.80305868</v>
       </c>
     </row>
     <row r="249">
@@ -5026,7 +5026,7 @@
         <v>2008</v>
       </c>
       <c r="D249" t="n">
-        <v>3.046790239</v>
+        <v>18.98226531</v>
       </c>
     </row>
     <row r="250">
@@ -5040,7 +5040,7 @@
         <v>2009</v>
       </c>
       <c r="D250" t="n">
-        <v>3.088868996</v>
+        <v>20.09544706</v>
       </c>
     </row>
     <row r="251">
@@ -5054,7 +5054,7 @@
         <v>2010</v>
       </c>
       <c r="D251" t="n">
-        <v>2.03390054</v>
+        <v>9.091829021</v>
       </c>
     </row>
     <row r="252">
@@ -5068,7 +5068,7 @@
         <v>2011</v>
       </c>
       <c r="D252" t="n">
-        <v>2.525371008</v>
+        <v>21.01841887</v>
       </c>
     </row>
     <row r="253">
@@ -5082,7 +5082,7 @@
         <v>2012</v>
       </c>
       <c r="D253" t="n">
-        <v>2.781397753</v>
+        <v>11.66066941</v>
       </c>
     </row>
     <row r="254">
@@ -5096,7 +5096,7 @@
         <v>2013</v>
       </c>
       <c r="D254" t="n">
-        <v>2.132613684</v>
+        <v>21.03774773</v>
       </c>
     </row>
     <row r="255">
@@ -5110,7 +5110,7 @@
         <v>2006</v>
       </c>
       <c r="D255" t="n">
-        <v>9.77993346</v>
+        <v>21.33047934</v>
       </c>
     </row>
     <row r="256">
@@ -5124,7 +5124,7 @@
         <v>2007</v>
       </c>
       <c r="D256" t="n">
-        <v>10.80305868</v>
+        <v>18.01021889</v>
       </c>
     </row>
     <row r="257">
@@ -5138,7 +5138,7 @@
         <v>2008</v>
       </c>
       <c r="D257" t="n">
-        <v>18.98226531</v>
+        <v>20.14983494</v>
       </c>
     </row>
     <row r="258">
@@ -5152,7 +5152,7 @@
         <v>2009</v>
       </c>
       <c r="D258" t="n">
-        <v>20.09544706</v>
+        <v>19.01581546</v>
       </c>
     </row>
     <row r="259">
@@ -5166,7 +5166,7 @@
         <v>2010</v>
       </c>
       <c r="D259" t="n">
-        <v>9.091829021</v>
+        <v>7.106175879</v>
       </c>
     </row>
     <row r="260">
@@ -5180,7 +5180,7 @@
         <v>2011</v>
       </c>
       <c r="D260" t="n">
-        <v>21.01841887</v>
+        <v>8.833933996</v>
       </c>
     </row>
     <row r="261">
@@ -5194,7 +5194,7 @@
         <v>2012</v>
       </c>
       <c r="D261" t="n">
-        <v>11.66066941</v>
+        <v>5.490677706</v>
       </c>
     </row>
     <row r="262">
@@ -5208,7 +5208,7 @@
         <v>2013</v>
       </c>
       <c r="D262" t="n">
-        <v>21.03774773</v>
+        <v>13.06788897</v>
       </c>
     </row>
     <row r="263">
@@ -5222,7 +5222,7 @@
         <v>2006</v>
       </c>
       <c r="D263" t="n">
-        <v>21.33047934</v>
+        <v>2.312761602</v>
       </c>
     </row>
     <row r="264">
@@ -5236,7 +5236,7 @@
         <v>2007</v>
       </c>
       <c r="D264" t="n">
-        <v>18.01021889</v>
+        <v>3.34087314</v>
       </c>
     </row>
     <row r="265">
@@ -5250,7 +5250,7 @@
         <v>2008</v>
       </c>
       <c r="D265" t="n">
-        <v>20.14983494</v>
+        <v>3.161329359</v>
       </c>
     </row>
     <row r="266">
@@ -5264,7 +5264,7 @@
         <v>2009</v>
       </c>
       <c r="D266" t="n">
-        <v>19.01581546</v>
+        <v>4.050261996</v>
       </c>
     </row>
     <row r="267">
@@ -5278,7 +5278,7 @@
         <v>2010</v>
       </c>
       <c r="D267" t="n">
-        <v>7.106175879</v>
+        <v>3.756628178</v>
       </c>
     </row>
     <row r="268">
@@ -5292,7 +5292,7 @@
         <v>2011</v>
       </c>
       <c r="D268" t="n">
-        <v>8.833933996</v>
+        <v>3.584362883</v>
       </c>
     </row>
     <row r="269">
@@ -5306,7 +5306,7 @@
         <v>2012</v>
       </c>
       <c r="D269" t="n">
-        <v>5.490677706</v>
+        <v>3.838738956</v>
       </c>
     </row>
     <row r="270">
@@ -5320,7 +5320,7 @@
         <v>2013</v>
       </c>
       <c r="D270" t="n">
-        <v>13.06788897</v>
+        <v>5.048059595</v>
       </c>
     </row>
     <row r="271">
@@ -5334,7 +5334,7 @@
         <v>2006</v>
       </c>
       <c r="D271" t="n">
-        <v>2.312761602</v>
+        <v>10.41314482</v>
       </c>
     </row>
     <row r="272">
@@ -5348,7 +5348,7 @@
         <v>2007</v>
       </c>
       <c r="D272" t="n">
-        <v>3.34087314</v>
+        <v>32.29357786</v>
       </c>
     </row>
     <row r="273">
@@ -5362,7 +5362,7 @@
         <v>2008</v>
       </c>
       <c r="D273" t="n">
-        <v>3.161329359</v>
+        <v>23.13984416</v>
       </c>
     </row>
     <row r="274">
@@ -5376,7 +5376,7 @@
         <v>2009</v>
       </c>
       <c r="D274" t="n">
-        <v>4.050261996</v>
+        <v>4.371826297</v>
       </c>
     </row>
     <row r="275">
@@ -5390,7 +5390,7 @@
         <v>2010</v>
       </c>
       <c r="D275" t="n">
-        <v>3.756628178</v>
+        <v>7.518346983</v>
       </c>
     </row>
     <row r="276">
@@ -5404,7 +5404,7 @@
         <v>2011</v>
       </c>
       <c r="D276" t="n">
-        <v>3.584362883</v>
+        <v>13.33477322</v>
       </c>
     </row>
     <row r="277">
@@ -5418,7 +5418,7 @@
         <v>2012</v>
       </c>
       <c r="D277" t="n">
-        <v>3.838738956</v>
+        <v>3.398851236</v>
       </c>
     </row>
     <row r="278">
@@ -5432,7 +5432,7 @@
         <v>2013</v>
       </c>
       <c r="D278" t="n">
-        <v>5.048059595</v>
+        <v>4.102032254</v>
       </c>
     </row>
     <row r="279">
@@ -5446,7 +5446,7 @@
         <v>2006</v>
       </c>
       <c r="D279" t="n">
-        <v>10.41314482</v>
+        <v>5.826149865</v>
       </c>
     </row>
     <row r="280">
@@ -5460,7 +5460,7 @@
         <v>2007</v>
       </c>
       <c r="D280" t="n">
-        <v>32.29357786</v>
+        <v>8.860240008</v>
       </c>
     </row>
     <row r="281">
@@ -5474,7 +5474,7 @@
         <v>2008</v>
       </c>
       <c r="D281" t="n">
-        <v>23.13984416</v>
+        <v>10.80873212</v>
       </c>
     </row>
     <row r="282">
@@ -5488,7 +5488,7 @@
         <v>2009</v>
       </c>
       <c r="D282" t="n">
-        <v>4.371826297</v>
+        <v>7.453154705</v>
       </c>
     </row>
     <row r="283">
@@ -5502,7 +5502,7 @@
         <v>2010</v>
       </c>
       <c r="D283" t="n">
-        <v>7.518346983</v>
+        <v>5.766671552</v>
       </c>
     </row>
     <row r="284">
@@ -5516,7 +5516,7 @@
         <v>2011</v>
       </c>
       <c r="D284" t="n">
-        <v>13.33477322</v>
+        <v>8.363363409</v>
       </c>
     </row>
     <row r="285">
@@ -5530,7 +5530,7 @@
         <v>2012</v>
       </c>
       <c r="D285" t="n">
-        <v>3.398851236</v>
+        <v>5.859679836</v>
       </c>
     </row>
     <row r="286">
@@ -5544,7 +5544,7 @@
         <v>2013</v>
       </c>
       <c r="D286" t="n">
-        <v>4.102032254</v>
+        <v>4.894318045</v>
       </c>
     </row>
     <row r="287">
@@ -5558,7 +5558,7 @@
         <v>2006</v>
       </c>
       <c r="D287" t="n">
-        <v>5.826149865</v>
+        <v>38.04681251</v>
       </c>
     </row>
     <row r="288">
@@ -5572,7 +5572,7 @@
         <v>2007</v>
       </c>
       <c r="D288" t="n">
-        <v>8.860240008</v>
+        <v>29.25146693</v>
       </c>
     </row>
     <row r="289">
@@ -5586,7 +5586,7 @@
         <v>2008</v>
       </c>
       <c r="D289" t="n">
-        <v>10.80873212</v>
+        <v>57.28165127</v>
       </c>
     </row>
     <row r="290">
@@ -5600,7 +5600,7 @@
         <v>2009</v>
       </c>
       <c r="D290" t="n">
-        <v>7.453154705</v>
+        <v>32.97821689</v>
       </c>
     </row>
     <row r="291">
@@ -5614,7 +5614,7 @@
         <v>2010</v>
       </c>
       <c r="D291" t="n">
-        <v>5.766671552</v>
+        <v>31.53112767</v>
       </c>
     </row>
     <row r="292">
@@ -5628,7 +5628,7 @@
         <v>2011</v>
       </c>
       <c r="D292" t="n">
-        <v>8.363363409</v>
+        <v>12.52589301</v>
       </c>
     </row>
     <row r="293">
@@ -5642,7 +5642,7 @@
         <v>2012</v>
       </c>
       <c r="D293" t="n">
-        <v>5.859679836</v>
+        <v>15.63955486</v>
       </c>
     </row>
     <row r="294">
@@ -5656,7 +5656,7 @@
         <v>2013</v>
       </c>
       <c r="D294" t="n">
-        <v>4.894318045</v>
+        <v>17.40095973</v>
       </c>
     </row>
     <row r="295">
@@ -5670,7 +5670,7 @@
         <v>2006</v>
       </c>
       <c r="D295" t="n">
-        <v>38.04681251</v>
+        <v>7.063218866</v>
       </c>
     </row>
     <row r="296">
@@ -5684,7 +5684,7 @@
         <v>2007</v>
       </c>
       <c r="D296" t="n">
-        <v>29.25146693</v>
+        <v>3.661754384</v>
       </c>
     </row>
     <row r="297">
@@ -5698,7 +5698,7 @@
         <v>2008</v>
       </c>
       <c r="D297" t="n">
-        <v>57.28165127</v>
+        <v>7.42158985</v>
       </c>
     </row>
     <row r="298">
@@ -5712,7 +5712,7 @@
         <v>2009</v>
       </c>
       <c r="D298" t="n">
-        <v>32.97821689</v>
+        <v>5.686122221</v>
       </c>
     </row>
     <row r="299">
@@ -5726,7 +5726,7 @@
         <v>2010</v>
       </c>
       <c r="D299" t="n">
-        <v>31.53112767</v>
+        <v>4.6708075</v>
       </c>
     </row>
     <row r="300">
@@ -5740,7 +5740,7 @@
         <v>2011</v>
       </c>
       <c r="D300" t="n">
-        <v>12.52589301</v>
+        <v>8.81410062</v>
       </c>
     </row>
     <row r="301">
@@ -5754,7 +5754,7 @@
         <v>2012</v>
       </c>
       <c r="D301" t="n">
-        <v>15.63955486</v>
+        <v>14.358181</v>
       </c>
     </row>
     <row r="302">
@@ -5768,7 +5768,7 @@
         <v>2013</v>
       </c>
       <c r="D302" t="n">
-        <v>17.40095973</v>
+        <v>17.60380541</v>
       </c>
     </row>
     <row r="303">
@@ -5782,7 +5782,7 @@
         <v>2006</v>
       </c>
       <c r="D303" t="n">
-        <v>7.063218866</v>
+        <v>3.051572535</v>
       </c>
     </row>
     <row r="304">
@@ -5796,7 +5796,7 @@
         <v>2007</v>
       </c>
       <c r="D304" t="n">
-        <v>3.661754384</v>
+        <v>5.623516267</v>
       </c>
     </row>
     <row r="305">
@@ -5810,7 +5810,7 @@
         <v>2008</v>
       </c>
       <c r="D305" t="n">
-        <v>7.42158985</v>
+        <v>2.515114289</v>
       </c>
     </row>
     <row r="306">
@@ -5824,7 +5824,7 @@
         <v>2009</v>
       </c>
       <c r="D306" t="n">
-        <v>5.686122221</v>
+        <v>2.338755659</v>
       </c>
     </row>
     <row r="307">
@@ -5838,7 +5838,7 @@
         <v>2010</v>
       </c>
       <c r="D307" t="n">
-        <v>4.6708075</v>
+        <v>6.436191519</v>
       </c>
     </row>
     <row r="308">
@@ -5852,7 +5852,7 @@
         <v>2011</v>
       </c>
       <c r="D308" t="n">
-        <v>8.81410062</v>
+        <v>1.091580348</v>
       </c>
     </row>
     <row r="309">
@@ -5866,7 +5866,7 @@
         <v>2012</v>
       </c>
       <c r="D309" t="n">
-        <v>14.358181</v>
+        <v>2.805053563</v>
       </c>
     </row>
     <row r="310">
@@ -5880,7 +5880,7 @@
         <v>2013</v>
       </c>
       <c r="D310" t="n">
-        <v>17.60380541</v>
+        <v>2.832418827</v>
       </c>
     </row>
     <row r="311">
@@ -21179,28 +21179,28 @@
         <v>55</v>
       </c>
       <c r="C27" t="n">
-        <v>3.051572535</v>
+        <v>9.639792179</v>
       </c>
       <c r="D27" t="n">
-        <v>5.623516267</v>
+        <v>6.547969031</v>
       </c>
       <c r="E27" t="n">
-        <v>2.515114289</v>
+        <v>6.124350991</v>
       </c>
       <c r="F27" t="n">
-        <v>2.338755659</v>
+        <v>6.295014863</v>
       </c>
       <c r="G27" t="n">
-        <v>6.436191519</v>
+        <v>5.348434187</v>
       </c>
       <c r="H27" t="n">
-        <v>1.091580348</v>
+        <v>7.908647437</v>
       </c>
       <c r="I27" t="n">
-        <v>2.805053563</v>
+        <v>6.697297905</v>
       </c>
       <c r="J27" t="n">
-        <v>2.832418827</v>
+        <v>8.510467918</v>
       </c>
     </row>
     <row r="28">
@@ -21211,28 +21211,28 @@
         <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>9.639792179</v>
+        <v>6.661575083</v>
       </c>
       <c r="D28" t="n">
-        <v>6.547969031</v>
+        <v>9.798449891</v>
       </c>
       <c r="E28" t="n">
-        <v>6.124350991</v>
+        <v>4.773075558</v>
       </c>
       <c r="F28" t="n">
-        <v>6.295014863</v>
+        <v>3.689236208</v>
       </c>
       <c r="G28" t="n">
-        <v>5.348434187</v>
+        <v>4.333753269</v>
       </c>
       <c r="H28" t="n">
-        <v>7.908647437</v>
+        <v>5.492220809</v>
       </c>
       <c r="I28" t="n">
-        <v>6.697297905</v>
+        <v>4.95117967</v>
       </c>
       <c r="J28" t="n">
-        <v>8.510467918</v>
+        <v>2.654849465</v>
       </c>
     </row>
     <row r="29">
@@ -21243,28 +21243,28 @@
         <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>6.661575083</v>
+        <v>7.355121802</v>
       </c>
       <c r="D29" t="n">
-        <v>9.798449891</v>
+        <v>8.235148709</v>
       </c>
       <c r="E29" t="n">
-        <v>4.773075558</v>
+        <v>4.670184579</v>
       </c>
       <c r="F29" t="n">
-        <v>3.689236208</v>
+        <v>8.085320085</v>
       </c>
       <c r="G29" t="n">
-        <v>4.333753269</v>
+        <v>4.577338703</v>
       </c>
       <c r="H29" t="n">
-        <v>5.492220809</v>
+        <v>2.165824885</v>
       </c>
       <c r="I29" t="n">
-        <v>4.95117967</v>
+        <v>2.310844397</v>
       </c>
       <c r="J29" t="n">
-        <v>2.654849465</v>
+        <v>5.065161415</v>
       </c>
     </row>
     <row r="30">
@@ -21275,28 +21275,28 @@
         <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v>7.355121802</v>
+        <v>1.337240001</v>
       </c>
       <c r="D30" t="n">
-        <v>8.235148709</v>
+        <v>1.403100071</v>
       </c>
       <c r="E30" t="n">
-        <v>4.670184579</v>
+        <v>1.321151272</v>
       </c>
       <c r="F30" t="n">
-        <v>8.085320085</v>
+        <v>1.917380781</v>
       </c>
       <c r="G30" t="n">
-        <v>4.577338703</v>
+        <v>2.860486351</v>
       </c>
       <c r="H30" t="n">
-        <v>2.165824885</v>
+        <v>6.354708828</v>
       </c>
       <c r="I30" t="n">
-        <v>2.310844397</v>
+        <v>2.300601005</v>
       </c>
       <c r="J30" t="n">
-        <v>5.065161415</v>
+        <v>1.502163458</v>
       </c>
     </row>
     <row r="31">
@@ -21307,28 +21307,28 @@
         <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v>1.337240001</v>
+        <v>0.628640541</v>
       </c>
       <c r="D31" t="n">
-        <v>1.403100071</v>
+        <v>2.114128812</v>
       </c>
       <c r="E31" t="n">
-        <v>1.321151272</v>
+        <v>3.073804514</v>
       </c>
       <c r="F31" t="n">
-        <v>1.917380781</v>
+        <v>4.906083014</v>
       </c>
       <c r="G31" t="n">
-        <v>2.860486351</v>
+        <v>9.212636616</v>
       </c>
       <c r="H31" t="n">
-        <v>6.354708828</v>
+        <v>10.74440751</v>
       </c>
       <c r="I31" t="n">
-        <v>2.300601005</v>
+        <v>6.8254307</v>
       </c>
       <c r="J31" t="n">
-        <v>1.502163458</v>
+        <v>4.087689912</v>
       </c>
     </row>
     <row r="32">
@@ -21339,28 +21339,28 @@
         <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>0.628640541</v>
+        <v>5.019423926</v>
       </c>
       <c r="D32" t="n">
-        <v>2.114128812</v>
+        <v>4.690517547</v>
       </c>
       <c r="E32" t="n">
-        <v>3.073804514</v>
+        <v>3.046790239</v>
       </c>
       <c r="F32" t="n">
-        <v>4.906083014</v>
+        <v>3.088868996</v>
       </c>
       <c r="G32" t="n">
-        <v>9.212636616</v>
+        <v>2.03390054</v>
       </c>
       <c r="H32" t="n">
-        <v>10.74440751</v>
+        <v>2.525371008</v>
       </c>
       <c r="I32" t="n">
-        <v>6.8254307</v>
+        <v>2.781397753</v>
       </c>
       <c r="J32" t="n">
-        <v>4.087689912</v>
+        <v>2.132613684</v>
       </c>
     </row>
     <row r="33">
@@ -21371,28 +21371,28 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>5.019423926</v>
+        <v>9.77993346</v>
       </c>
       <c r="D33" t="n">
-        <v>4.690517547</v>
+        <v>10.80305868</v>
       </c>
       <c r="E33" t="n">
-        <v>3.046790239</v>
+        <v>18.98226531</v>
       </c>
       <c r="F33" t="n">
-        <v>3.088868996</v>
+        <v>20.09544706</v>
       </c>
       <c r="G33" t="n">
-        <v>2.03390054</v>
+        <v>9.091829021</v>
       </c>
       <c r="H33" t="n">
-        <v>2.525371008</v>
+        <v>21.01841887</v>
       </c>
       <c r="I33" t="n">
-        <v>2.781397753</v>
+        <v>11.66066941</v>
       </c>
       <c r="J33" t="n">
-        <v>2.132613684</v>
+        <v>21.03774773</v>
       </c>
     </row>
     <row r="34">
@@ -21403,28 +21403,28 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>9.77993346</v>
+        <v>21.33047934</v>
       </c>
       <c r="D34" t="n">
-        <v>10.80305868</v>
+        <v>18.01021889</v>
       </c>
       <c r="E34" t="n">
-        <v>18.98226531</v>
+        <v>20.14983494</v>
       </c>
       <c r="F34" t="n">
-        <v>20.09544706</v>
+        <v>19.01581546</v>
       </c>
       <c r="G34" t="n">
-        <v>9.091829021</v>
+        <v>7.106175879</v>
       </c>
       <c r="H34" t="n">
-        <v>21.01841887</v>
+        <v>8.833933996</v>
       </c>
       <c r="I34" t="n">
-        <v>11.66066941</v>
+        <v>5.490677706</v>
       </c>
       <c r="J34" t="n">
-        <v>21.03774773</v>
+        <v>13.06788897</v>
       </c>
     </row>
     <row r="35">
@@ -21435,28 +21435,28 @@
         <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>21.33047934</v>
+        <v>2.312761602</v>
       </c>
       <c r="D35" t="n">
-        <v>18.01021889</v>
+        <v>3.34087314</v>
       </c>
       <c r="E35" t="n">
-        <v>20.14983494</v>
+        <v>3.161329359</v>
       </c>
       <c r="F35" t="n">
-        <v>19.01581546</v>
+        <v>4.050261996</v>
       </c>
       <c r="G35" t="n">
-        <v>7.106175879</v>
+        <v>3.756628178</v>
       </c>
       <c r="H35" t="n">
-        <v>8.833933996</v>
+        <v>3.584362883</v>
       </c>
       <c r="I35" t="n">
-        <v>5.490677706</v>
+        <v>3.838738956</v>
       </c>
       <c r="J35" t="n">
-        <v>13.06788897</v>
+        <v>5.048059595</v>
       </c>
     </row>
     <row r="36">
@@ -21467,28 +21467,28 @@
         <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>2.312761602</v>
+        <v>10.41314482</v>
       </c>
       <c r="D36" t="n">
-        <v>3.34087314</v>
+        <v>32.29357786</v>
       </c>
       <c r="E36" t="n">
-        <v>3.161329359</v>
+        <v>23.13984416</v>
       </c>
       <c r="F36" t="n">
-        <v>4.050261996</v>
+        <v>4.371826297</v>
       </c>
       <c r="G36" t="n">
-        <v>3.756628178</v>
+        <v>7.518346983</v>
       </c>
       <c r="H36" t="n">
-        <v>3.584362883</v>
+        <v>13.33477322</v>
       </c>
       <c r="I36" t="n">
-        <v>3.838738956</v>
+        <v>3.398851236</v>
       </c>
       <c r="J36" t="n">
-        <v>5.048059595</v>
+        <v>4.102032254</v>
       </c>
     </row>
     <row r="37">
@@ -21499,28 +21499,28 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>10.41314482</v>
+        <v>5.826149865</v>
       </c>
       <c r="D37" t="n">
-        <v>32.29357786</v>
+        <v>8.860240008</v>
       </c>
       <c r="E37" t="n">
-        <v>23.13984416</v>
+        <v>10.80873212</v>
       </c>
       <c r="F37" t="n">
-        <v>4.371826297</v>
+        <v>7.453154705</v>
       </c>
       <c r="G37" t="n">
-        <v>7.518346983</v>
+        <v>5.766671552</v>
       </c>
       <c r="H37" t="n">
-        <v>13.33477322</v>
+        <v>8.363363409</v>
       </c>
       <c r="I37" t="n">
-        <v>3.398851236</v>
+        <v>5.859679836</v>
       </c>
       <c r="J37" t="n">
-        <v>4.102032254</v>
+        <v>4.894318045</v>
       </c>
     </row>
     <row r="38">
@@ -21531,28 +21531,28 @@
         <v>77</v>
       </c>
       <c r="C38" t="n">
-        <v>5.826149865</v>
+        <v>38.04681251</v>
       </c>
       <c r="D38" t="n">
-        <v>8.860240008</v>
+        <v>29.25146693</v>
       </c>
       <c r="E38" t="n">
-        <v>10.80873212</v>
+        <v>57.28165127</v>
       </c>
       <c r="F38" t="n">
-        <v>7.453154705</v>
+        <v>32.97821689</v>
       </c>
       <c r="G38" t="n">
-        <v>5.766671552</v>
+        <v>31.53112767</v>
       </c>
       <c r="H38" t="n">
-        <v>8.363363409</v>
+        <v>12.52589301</v>
       </c>
       <c r="I38" t="n">
-        <v>5.859679836</v>
+        <v>15.63955486</v>
       </c>
       <c r="J38" t="n">
-        <v>4.894318045</v>
+        <v>17.40095973</v>
       </c>
     </row>
     <row r="39">
@@ -21563,28 +21563,28 @@
         <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>38.04681251</v>
+        <v>7.063218866</v>
       </c>
       <c r="D39" t="n">
-        <v>29.25146693</v>
+        <v>3.661754384</v>
       </c>
       <c r="E39" t="n">
-        <v>57.28165127</v>
+        <v>7.42158985</v>
       </c>
       <c r="F39" t="n">
-        <v>32.97821689</v>
+        <v>5.686122221</v>
       </c>
       <c r="G39" t="n">
-        <v>31.53112767</v>
+        <v>4.6708075</v>
       </c>
       <c r="H39" t="n">
-        <v>12.52589301</v>
+        <v>8.81410062</v>
       </c>
       <c r="I39" t="n">
-        <v>15.63955486</v>
+        <v>14.358181</v>
       </c>
       <c r="J39" t="n">
-        <v>17.40095973</v>
+        <v>17.60380541</v>
       </c>
     </row>
     <row r="40">
@@ -21595,28 +21595,28 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>7.063218866</v>
+        <v>3.051572535</v>
       </c>
       <c r="D40" t="n">
-        <v>3.661754384</v>
+        <v>5.623516267</v>
       </c>
       <c r="E40" t="n">
-        <v>7.42158985</v>
+        <v>2.515114289</v>
       </c>
       <c r="F40" t="n">
-        <v>5.686122221</v>
+        <v>2.338755659</v>
       </c>
       <c r="G40" t="n">
-        <v>4.6708075</v>
+        <v>6.436191519</v>
       </c>
       <c r="H40" t="n">
-        <v>8.81410062</v>
+        <v>1.091580348</v>
       </c>
       <c r="I40" t="n">
-        <v>14.358181</v>
+        <v>2.805053563</v>
       </c>
       <c r="J40" t="n">
-        <v>17.60380541</v>
+        <v>2.832418827</v>
       </c>
     </row>
     <row r="41">
